--- a/bom/BOM_IMX585.xlsx
+++ b/bom/BOM_IMX585.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will1\Dropbox\KiCad\IMX585_MIPI_Breakout_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3451F9-4F48-4B43-AA5A-4237460D7397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE6DFE-9404-4D27-BC39-5ED9A49E0884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15188" yWindow="2940" windowWidth="22477" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2393" yWindow="2250" windowWidth="22815" windowHeight="16792" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="138">
   <si>
     <t>Comment</t>
   </si>
@@ -291,15 +291,9 @@
     <t>C33,C27,C31,C18,C7,C35,C2,C11</t>
   </si>
   <si>
-    <t>C43,C4,C21,C29,C28,C49,C5,C8,C37,C57,C41,C39,C42,C14,C19,C40,C38,C30</t>
-  </si>
-  <si>
     <t>R14</t>
   </si>
   <si>
-    <t>C52,C36,C54,C47,C55,C9,C20,C56,C51,C15,C53,C46,C44,C48,C45</t>
-  </si>
-  <si>
     <t>R12</t>
   </si>
   <si>
@@ -454,13 +448,34 @@
   </si>
   <si>
     <t>C2049745</t>
+  </si>
+  <si>
+    <t>C64,C43,C4,C21,C29,C28,C49,C5,C8,C37,C57,C41,C39,C42,C14,C19,C40,C38,C30</t>
+  </si>
+  <si>
+    <t>C52,C36,C54,C47,C55,C9,C20,C56,C51,C15,C53,C46,C44,C48,C45,C63</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>PQFN50P300X250X97-14N</t>
+  </si>
+  <si>
+    <t>ICM-42688-P</t>
+  </si>
+  <si>
+    <t>C65</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -503,6 +518,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -553,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,6 +608,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20" customHeight="1"/>
@@ -971,7 +998,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -981,7 +1008,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>11</v>
@@ -1029,7 +1056,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -1045,7 +1072,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
@@ -1061,7 +1088,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -1077,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
@@ -1099,23 +1126,23 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1125,29 +1152,29 @@
         <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1157,20 +1184,20 @@
         <v>46</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>56</v>
@@ -1179,7 +1206,7 @@
         <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1195,7 +1222,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1227,22 +1254,22 @@
         <v>40</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1258,7 +1285,7 @@
         <v>61</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1274,7 +1301,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1290,39 +1317,39 @@
         <v>8</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1338,7 +1365,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1348,7 +1375,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>8</v>
@@ -1361,16 +1388,16 @@
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1380,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
@@ -1402,39 +1429,39 @@
         <v>13</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1450,23 +1477,23 @@
         <v>13</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1482,7 +1509,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1">
@@ -1496,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1">
@@ -1524,7 +1551,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20" customHeight="1">
@@ -1540,6 +1567,36 @@
       <c r="D38" s="6" t="s">
         <v>75</v>
       </c>
+    </row>
+    <row r="39" spans="1:6" ht="20" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="20" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="20" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
